--- a/data/trans_orig/P14B97-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B97-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8D9A709-21F3-4D19-8FAC-A509033E215C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D4B828E-008C-429B-8DDD-A45CF174BC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D8AF6079-1A33-4886-AAC9-A6B402C2B7ED}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1BE064D2-5150-4255-8639-EE54318D206F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="320">
   <si>
     <t>Población cuya otra enfermedad le limita 1 en 2012 (Tasa respuesta: 4,87%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>83,43%</t>
   </si>
   <si>
-    <t>33,97%</t>
+    <t>35,12%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -94,10 +94,10 @@
     <t>54,36%</t>
   </si>
   <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,7 +106,7 @@
     <t>16,57%</t>
   </si>
   <si>
-    <t>66,03%</t>
+    <t>64,88%</t>
   </si>
   <si>
     <t>67,58%</t>
@@ -118,10 +118,10 @@
     <t>45,64%</t>
   </si>
   <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -133,55 +133,55 @@
     <t>39,22%</t>
   </si>
   <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
   </si>
   <si>
     <t>48,66%</t>
   </si>
   <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
   </si>
   <si>
     <t>45,23%</t>
   </si>
   <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
   </si>
   <si>
     <t>60,78%</t>
   </si>
   <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
   </si>
   <si>
     <t>51,34%</t>
   </si>
   <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
   </si>
   <si>
     <t>54,77%</t>
   </si>
   <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -190,55 +190,55 @@
     <t>60,75%</t>
   </si>
   <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>45,68%</t>
   </si>
   <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
   </si>
   <si>
     <t>50,1%</t>
   </si>
   <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
   </si>
   <si>
     <t>39,25%</t>
   </si>
   <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
   </si>
   <si>
     <t>54,32%</t>
   </si>
   <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
   </si>
   <si>
     <t>49,9%</t>
   </si>
   <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -247,55 +247,49 @@
     <t>53,81%</t>
   </si>
   <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
   </si>
   <si>
     <t>45,08%</t>
   </si>
   <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
+    <t>30,37%</t>
   </si>
   <si>
     <t>48,02%</t>
   </si>
   <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
   </si>
   <si>
     <t>46,19%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
   </si>
   <si>
     <t>54,92%</t>
   </si>
   <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
+    <t>69,63%</t>
   </si>
   <si>
     <t>51,98%</t>
   </si>
   <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -304,724 +298,706 @@
     <t>51,06%</t>
   </si>
   <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
   </si>
   <si>
     <t>33,64%</t>
   </si>
   <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
   </si>
   <si>
     <t>40,18%</t>
   </si>
   <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya otra enfermedad le limita 1 en 2015 (Tasa respuesta: 6,1%)</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
     <t>30,0%</t>
   </si>
   <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>Población cuya otra enfermedad le limita 1 en 2023 (Tasa respuesta: 10,63%)</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
   </si>
   <si>
     <t>40,67%</t>
   </si>
   <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
   </si>
   <si>
     <t>59,33%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya otra enfermedad le limita 1 en 2015 (Tasa respuesta: 6,1%)</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>Población cuya otra enfermedad le limita 1 en 2023 (Tasa respuesta: 10,63%)</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
     <t>51,27%</t>
   </si>
   <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
+    <t>44,5%</t>
   </si>
   <si>
     <t>53,79%</t>
   </si>
   <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
   </si>
   <si>
     <t>55,32%</t>
   </si>
   <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
   </si>
   <si>
     <t>54,65%</t>
   </si>
   <si>
+    <t>57,98%</t>
+  </si>
+  <si>
     <t>46,21%</t>
   </si>
   <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
   </si>
   <si>
     <t>44,68%</t>
   </si>
   <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
   </si>
   <si>
     <t>45,35%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FD3DD1-A4FC-4528-812E-27B0B33228E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2F2C89-BFD8-4B3A-B041-25FD58E5B0C3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2043,7 +2019,7 @@
         <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -2052,13 +2028,13 @@
         <v>29765</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,13 +2049,13 @@
         <v>9649</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -2088,13 +2064,13 @@
         <v>22572</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -2103,13 +2079,13 @@
         <v>32221</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,7 +2141,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2177,13 +2153,13 @@
         <v>17953</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2192,13 +2168,13 @@
         <v>19677</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -2207,13 +2183,13 @@
         <v>37630</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2204,13 @@
         <v>17210</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -2243,13 +2219,13 @@
         <v>38812</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>54</v>
@@ -2258,10 +2234,10 @@
         <v>56022</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>102</v>
@@ -2496,7 +2472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5B9EFE-EE2F-4FAD-88E7-860FD6B9B9F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDCF593-2AD0-49D2-A12E-DA54798772B7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2650,13 +2626,13 @@
         <v>17902</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,13 +2647,13 @@
         <v>999</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -2686,13 +2662,13 @@
         <v>6672</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -2701,13 +2677,13 @@
         <v>7670</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2751,13 @@
         <v>8636</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -2790,13 +2766,13 @@
         <v>24691</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -2805,13 +2781,13 @@
         <v>33327</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2802,13 @@
         <v>8025</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -2841,13 +2817,13 @@
         <v>26386</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>34</v>
@@ -2856,13 +2832,13 @@
         <v>34411</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2906,13 @@
         <v>26357</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -2945,13 +2921,13 @@
         <v>33903</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
@@ -2960,13 +2936,13 @@
         <v>60261</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2957,13 @@
         <v>20956</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H11" s="7">
         <v>47</v>
@@ -2996,13 +2972,13 @@
         <v>49666</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="M11" s="7">
         <v>66</v>
@@ -3228,7 +3204,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3243,10 +3219,10 @@
         <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -3255,13 +3231,13 @@
         <v>39940</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -3270,13 +3246,13 @@
         <v>62985</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3267,13 @@
         <v>10408</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -3306,13 +3282,13 @@
         <v>53622</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -3321,13 +3297,13 @@
         <v>64029</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3371,13 @@
         <v>76339</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -3410,13 +3386,13 @@
         <v>132372</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>191</v>
@@ -3425,13 +3401,13 @@
         <v>208711</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3422,13 @@
         <v>54970</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H20" s="7">
         <v>157</v>
@@ -3461,13 +3437,13 @@
         <v>169867</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>210</v>
@@ -3476,13 +3452,13 @@
         <v>224836</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,7 +3535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD98724B-2503-4EC6-A0D5-4D4FF866CFC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A07CA14-484B-467B-BAEF-B3AB524F74F6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3576,7 +3552,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3683,13 +3659,13 @@
         <v>13533</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -3698,13 +3674,13 @@
         <v>10741</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -3713,13 +3689,13 @@
         <v>24275</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3710,13 @@
         <v>3897</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3749,13 +3725,13 @@
         <v>7729</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -3764,13 +3740,13 @@
         <v>11625</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3814,13 @@
         <v>25228</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -3853,13 +3829,13 @@
         <v>28269</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>90</v>
@@ -3868,13 +3844,13 @@
         <v>53497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,13 +3865,13 @@
         <v>34351</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
@@ -3904,13 +3880,13 @@
         <v>25534</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>86</v>
@@ -3919,13 +3895,13 @@
         <v>59885</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +3969,13 @@
         <v>48521</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
         <v>108</v>
@@ -4008,13 +3984,13 @@
         <v>66277</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>155</v>
@@ -4023,13 +3999,13 @@
         <v>114798</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4020,13 @@
         <v>30933</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H11" s="7">
         <v>73</v>
@@ -4059,13 +4035,13 @@
         <v>47780</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>268</v>
       </c>
       <c r="M11" s="7">
         <v>110</v>
@@ -4074,13 +4050,13 @@
         <v>78713</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4124,13 @@
         <v>26654</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -4163,13 +4139,13 @@
         <v>43184</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -4178,13 +4154,13 @@
         <v>69838</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4175,13 @@
         <v>19568</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -4214,13 +4190,13 @@
         <v>24720</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>55</v>
@@ -4229,13 +4205,13 @@
         <v>44288</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,7 +4267,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4303,13 +4279,13 @@
         <v>42927</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
         <v>85</v>
@@ -4318,13 +4294,13 @@
         <v>61304</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>54</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -4333,13 +4309,13 @@
         <v>104231</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4330,13 @@
         <v>46000</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -4369,13 +4345,13 @@
         <v>63684</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
@@ -4384,13 +4360,13 @@
         <v>109685</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4434,13 @@
         <v>156863</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>345</v>
@@ -4473,13 +4449,13 @@
         <v>209775</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>514</v>
@@ -4488,13 +4464,13 @@
         <v>366639</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>87</v>
+        <v>302</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4485,13 @@
         <v>134749</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>256</v>
@@ -4524,13 +4500,13 @@
         <v>169446</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>415</v>
@@ -4539,13 +4515,13 @@
         <v>304195</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B97-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B97-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D4B828E-008C-429B-8DDD-A45CF174BC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5764660B-F1B7-47C2-BBC3-AC3461638E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1BE064D2-5150-4255-8639-EE54318D206F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CEDC7D83-9944-439D-BE28-C426EA77C750}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="334">
   <si>
     <t>Población cuya otra enfermedad le limita 1 en 2012 (Tasa respuesta: 4,87%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -76,7 +76,7 @@
     <t>83,43%</t>
   </si>
   <si>
-    <t>35,12%</t>
+    <t>33,11%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -88,16 +88,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>68,56%</t>
+    <t>81,55%</t>
   </si>
   <si>
     <t>54,36%</t>
   </si>
   <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,841 +106,883 @@
     <t>16,57%</t>
   </si>
   <si>
-    <t>64,88%</t>
+    <t>66,89%</t>
   </si>
   <si>
     <t>67,58%</t>
   </si>
   <si>
-    <t>31,44%</t>
+    <t>18,45%</t>
   </si>
   <si>
     <t>45,64%</t>
   </si>
   <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>39,22%</t>
   </si>
   <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
   </si>
   <si>
     <t>48,66%</t>
   </si>
   <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
   </si>
   <si>
     <t>45,23%</t>
   </si>
   <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
   </si>
   <si>
     <t>60,78%</t>
   </si>
   <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
   </si>
   <si>
     <t>51,34%</t>
   </si>
   <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
   </si>
   <si>
     <t>54,77%</t>
   </si>
   <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>60,75%</t>
   </si>
   <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
   </si>
   <si>
     <t>45,68%</t>
   </si>
   <si>
-    <t>34,24%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya otra enfermedad le limita 1 en 2016 (Tasa respuesta: 6,1%)</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>Población cuya otra enfermedad le limita 1 en 2023 (Tasa respuesta: 10,63%)</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
   </si>
   <si>
     <t>57,6%</t>
   </si>
   <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
   </si>
   <si>
     <t>42,4%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya otra enfermedad le limita 1 en 2015 (Tasa respuesta: 6,1%)</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>Población cuya otra enfermedad le limita 1 en 2023 (Tasa respuesta: 10,63%)</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
   </si>
   <si>
     <t>59,33%</t>
@@ -1409,7 +1451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2F2C89-BFD8-4B3A-B041-25FD58E5B0C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7207424C-CFF8-43DA-878E-705FEBF9083A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2019,7 +2061,7 @@
         <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -2028,13 +2070,13 @@
         <v>29765</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,13 +2091,13 @@
         <v>9649</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -2064,13 +2106,13 @@
         <v>22572</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -2079,13 +2121,13 @@
         <v>32221</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,7 +2183,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2153,13 +2195,13 @@
         <v>17953</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2168,13 +2210,13 @@
         <v>19677</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -2183,13 +2225,13 @@
         <v>37630</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,13 +2246,13 @@
         <v>17210</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -2219,7 +2261,7 @@
         <v>38812</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>98</v>
@@ -2472,7 +2514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDCF593-2AD0-49D2-A12E-DA54798772B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C92F71-CF5D-424F-892B-F7D6C66A757C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2924,10 +2966,10 @@
         <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
@@ -2936,13 +2978,13 @@
         <v>60261</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2999,13 @@
         <v>20956</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>47</v>
@@ -2972,13 +3014,13 @@
         <v>49666</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>66</v>
@@ -2987,13 +3029,13 @@
         <v>70621</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3103,13 @@
         <v>13987</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -3076,13 +3118,13 @@
         <v>20249</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -3091,13 +3133,13 @@
         <v>34236</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3154,13 @@
         <v>14583</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -3127,13 +3169,13 @@
         <v>33522</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -3142,13 +3184,13 @@
         <v>48105</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,7 +3246,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3216,13 +3258,13 @@
         <v>23045</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -3231,13 +3273,13 @@
         <v>39940</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -3246,13 +3288,13 @@
         <v>62985</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3309,13 @@
         <v>10408</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -3282,13 +3324,13 @@
         <v>53622</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -3297,13 +3339,13 @@
         <v>64029</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3413,13 @@
         <v>76339</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -3386,13 +3428,13 @@
         <v>132372</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>191</v>
@@ -3401,13 +3443,13 @@
         <v>208711</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3464,13 @@
         <v>54970</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
         <v>157</v>
@@ -3437,13 +3479,13 @@
         <v>169867</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>210</v>
@@ -3452,13 +3494,13 @@
         <v>224836</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,7 +3577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A07CA14-484B-467B-BAEF-B3AB524F74F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2439A32-D787-41F1-B871-670C44C7DB70}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3552,7 +3594,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3659,13 +3701,13 @@
         <v>13533</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -3674,13 +3716,13 @@
         <v>10741</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -3689,13 +3731,13 @@
         <v>24275</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3752,13 @@
         <v>3897</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3725,13 +3767,13 @@
         <v>7729</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -3740,13 +3782,13 @@
         <v>11625</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3856,13 @@
         <v>25228</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>92</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -3829,13 +3871,13 @@
         <v>28269</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>90</v>
@@ -3844,13 +3886,13 @@
         <v>53497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3907,13 @@
         <v>34351</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>102</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
@@ -3880,13 +3922,13 @@
         <v>25534</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>86</v>
@@ -3895,13 +3937,13 @@
         <v>59885</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +4011,13 @@
         <v>48521</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>108</v>
@@ -3984,13 +4026,13 @@
         <v>66277</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>155</v>
@@ -3999,13 +4041,13 @@
         <v>114798</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4062,13 @@
         <v>30933</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>73</v>
@@ -4035,13 +4077,13 @@
         <v>47780</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>110</v>
@@ -4050,13 +4092,13 @@
         <v>78713</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4166,13 @@
         <v>26654</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -4139,13 +4181,13 @@
         <v>43184</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -4154,13 +4196,13 @@
         <v>69838</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4217,13 @@
         <v>19568</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -4190,13 +4232,13 @@
         <v>24720</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>55</v>
@@ -4205,13 +4247,13 @@
         <v>44288</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,7 +4309,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4279,13 +4321,13 @@
         <v>42927</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="H16" s="7">
         <v>85</v>
@@ -4294,13 +4336,13 @@
         <v>61304</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -4309,13 +4351,13 @@
         <v>104231</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4372,13 @@
         <v>46000</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -4345,13 +4387,13 @@
         <v>63684</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>314</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
@@ -4360,13 +4402,13 @@
         <v>109685</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4476,13 @@
         <v>156863</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="H19" s="7">
         <v>345</v>
@@ -4449,13 +4491,13 @@
         <v>209775</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="M19" s="7">
         <v>514</v>
@@ -4464,13 +4506,13 @@
         <v>366639</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4527,13 @@
         <v>134749</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="H20" s="7">
         <v>256</v>
@@ -4500,13 +4542,13 @@
         <v>169446</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="M20" s="7">
         <v>415</v>
@@ -4515,13 +4557,13 @@
         <v>304195</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
